--- a/doc/OpenPDA_PriceCalculation(RUB).xlsx
+++ b/doc/OpenPDA_PriceCalculation(RUB).xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\OpenPDA\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D35E85D-1107-48C1-9942-9A95EE603935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E62CFF8-F1A5-4520-8695-B52F22161426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EE931DCF-7FE9-4AA6-9420-946B3BEE114E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{EE931DCF-7FE9-4AA6-9420-946B3BEE114E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2021-11-08" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>ATxmega128A1U</t>
   </si>
@@ -453,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580B76AD-8932-40D1-B2AB-F6D0C873823D}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A1:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,4 +711,209 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669D06D7-B3FB-4DC2-BBFF-E51AE20C97A6}">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f>SUM(B2:B22)</f>
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <f>SUM(C2:C22)</f>
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A24:C24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/OpenPDA_PriceCalculation(RUB).xlsx
+++ b/doc/OpenPDA_PriceCalculation(RUB).xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\OpenPDA\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E62CFF8-F1A5-4520-8695-B52F22161426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CE49AF-E376-469D-A707-C70BFCFA7E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{EE931DCF-7FE9-4AA6-9420-946B3BEE114E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{EE931DCF-7FE9-4AA6-9420-946B3BEE114E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="2021-11-08" sheetId="2" r:id="rId2"/>
+    <sheet name="2022-05-24" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="22">
   <si>
     <t>ATxmega128A1U</t>
   </si>
@@ -717,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669D06D7-B3FB-4DC2-BBFF-E51AE20C97A6}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,4 +917,209 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97AA01AF-077C-446F-A37D-76442D69A798}">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f>SUM(B2:B22)</f>
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <f>SUM(C2:C22)</f>
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A24:C24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>